--- a/blog_keyword.xlsx
+++ b/blog_keyword.xlsx
@@ -280,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill/>
     </fill>
@@ -430,6 +430,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF6D6D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9E1F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -1332,7 +1337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="415">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2462,16 +2467,70 @@
     <xf numFmtId="0" fontId="24" fillId="26" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -24504,7 +24563,7 @@
       </c>
       <c r="G1" s="355" t="inlineStr">
         <is>
-          <t>2022-01-21 20:06:44.754779</t>
+          <t>2022-01-24 15:32:38.008023</t>
         </is>
       </c>
       <c r="H1" s="356" t="n"/>
@@ -24531,17 +24590,17 @@
           <t>위례고국어</t>
         </is>
       </c>
-      <c r="F2" s="239" t="n">
+      <c r="F2" s="393" t="n">
         <v>15</v>
       </c>
-      <c r="G2" s="240" t="inlineStr">
+      <c r="G2" s="394" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H2" s="241" t="n"/>
-      <c r="I2" s="239" t="n"/>
-      <c r="J2" s="242" t="inlineStr">
+      <c r="H2" s="395" t="n"/>
+      <c r="I2" s="393" t="n"/>
+      <c r="J2" s="396" t="inlineStr">
         <is>
           <t>위례 국어 (송현 국어 학원 ) - 예비고1, 예비중2 개강 (12월 4일)</t>
         </is>
@@ -24554,22 +24613,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="359" t="n"/>
-      <c r="E3" s="393" t="inlineStr">
+      <c r="E3" s="397" t="inlineStr">
         <is>
           <t>위례고국어내신</t>
         </is>
       </c>
-      <c r="F3" s="164" t="n">
+      <c r="F3" s="398" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="209" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H3" s="155" t="n"/>
-      <c r="I3" s="164" t="n"/>
-      <c r="J3" s="206" t="inlineStr">
+      <c r="G3" s="399" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H3" s="400" t="n"/>
+      <c r="I3" s="398" t="n"/>
+      <c r="J3" s="401" t="inlineStr">
         <is>
           <t>위례한빛고등학교 - 한빛고 국어1학년 내신 분석 (2021년 1학기 1차 지필평가)</t>
         </is>
@@ -24586,22 +24645,22 @@
           <t>한빛고</t>
         </is>
       </c>
-      <c r="E4" s="394" t="inlineStr">
+      <c r="E4" s="402" t="inlineStr">
         <is>
           <t>한빛고국어</t>
         </is>
       </c>
-      <c r="F4" s="115" t="n">
+      <c r="F4" s="398" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="138" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H4" s="118" t="n"/>
-      <c r="I4" s="115" t="n"/>
-      <c r="J4" s="207" t="inlineStr">
+      <c r="G4" s="399" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="400" t="n"/>
+      <c r="I4" s="398" t="n"/>
+      <c r="J4" s="403" t="inlineStr">
         <is>
           <t>위례국어학원 - 한빛고 2학년 중간고사 국어 내신 분석 2021년 1학기 1차 지필평가(중간고사)</t>
         </is>
@@ -24614,22 +24673,22 @@
         <v>2</v>
       </c>
       <c r="D5" s="359" t="n"/>
-      <c r="E5" s="394" t="inlineStr">
+      <c r="E5" s="402" t="inlineStr">
         <is>
           <t>한빛고국어내신</t>
         </is>
       </c>
-      <c r="F5" s="164" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H5" s="155" t="n"/>
-      <c r="I5" s="164" t="n"/>
-      <c r="J5" s="206" t="inlineStr">
+      <c r="F5" s="398" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="404" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H5" s="400" t="n"/>
+      <c r="I5" s="398" t="n"/>
+      <c r="J5" s="401" t="inlineStr">
         <is>
           <t>위례국어학원 - 한빛고 2학년 중간고사 국어 내신 분석 2021년 1학기 1차 지필평가(중간고사)</t>
         </is>
@@ -24646,24 +24705,24 @@
           <t>덕수고</t>
         </is>
       </c>
-      <c r="E6" s="393" t="inlineStr">
+      <c r="E6" s="405" t="inlineStr">
         <is>
           <t>덕수고국어</t>
         </is>
       </c>
-      <c r="F6" s="239" t="inlineStr">
+      <c r="F6" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G6" s="243" t="inlineStr">
+      <c r="G6" s="406" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H6" s="241" t="n"/>
-      <c r="I6" s="239" t="n"/>
-      <c r="J6" s="242" t="inlineStr">
+      <c r="H6" s="395" t="n"/>
+      <c r="I6" s="393" t="n"/>
+      <c r="J6" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -24676,24 +24735,24 @@
         <v>2</v>
       </c>
       <c r="D7" s="357" t="n"/>
-      <c r="E7" s="395" t="inlineStr">
+      <c r="E7" s="394" t="inlineStr">
         <is>
           <t>덕수고국어내신</t>
         </is>
       </c>
-      <c r="F7" s="239" t="inlineStr">
+      <c r="F7" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G7" s="239" t="inlineStr">
+      <c r="G7" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H7" s="239" t="n"/>
-      <c r="I7" s="239" t="n"/>
-      <c r="J7" s="242" t="inlineStr">
+      <c r="H7" s="393" t="n"/>
+      <c r="I7" s="393" t="n"/>
+      <c r="J7" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -24706,22 +24765,22 @@
         <v>2</v>
       </c>
       <c r="D8" s="359" t="n"/>
-      <c r="E8" s="395" t="inlineStr">
+      <c r="E8" s="399" t="inlineStr">
         <is>
           <t>위례덕수고 국어</t>
         </is>
       </c>
-      <c r="F8" s="115" t="n">
+      <c r="F8" s="398" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="115" t="inlineStr">
+      <c r="G8" s="398" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H8" s="115" t="n"/>
-      <c r="I8" s="115" t="n"/>
-      <c r="J8" s="206" t="inlineStr">
+      <c r="H8" s="398" t="n"/>
+      <c r="I8" s="398" t="n"/>
+      <c r="J8" s="401" t="inlineStr">
         <is>
           <t>좋은 학습태도! 국어 성적을 올린다!</t>
         </is>
@@ -24738,22 +24797,22 @@
           <t>중앙중</t>
         </is>
       </c>
-      <c r="E9" s="394" t="inlineStr">
+      <c r="E9" s="402" t="inlineStr">
         <is>
           <t>위례중앙중 국어</t>
         </is>
       </c>
-      <c r="F9" s="223" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="137" t="inlineStr">
+      <c r="F9" s="407" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="404" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H9" s="224" t="n"/>
-      <c r="I9" s="223" t="n"/>
-      <c r="J9" s="206" t="inlineStr">
+      <c r="H9" s="408" t="n"/>
+      <c r="I9" s="407" t="n"/>
+      <c r="J9" s="401" t="inlineStr">
         <is>
           <t>[위례중앙중 국어] 독후감(시하와 칸타의 장: 마트 이야기)</t>
         </is>
@@ -24766,22 +24825,22 @@
         <v>2</v>
       </c>
       <c r="D10" s="357" t="n"/>
-      <c r="E10" s="393" t="inlineStr">
+      <c r="E10" s="397" t="inlineStr">
         <is>
           <t>위례중앙중학교 국어</t>
         </is>
       </c>
-      <c r="F10" s="115" t="n">
+      <c r="F10" s="398" t="n">
         <v>4</v>
       </c>
-      <c r="G10" s="137" t="inlineStr">
+      <c r="G10" s="404" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="H10" s="118" t="n"/>
-      <c r="I10" s="115" t="n"/>
-      <c r="J10" s="206" t="inlineStr">
+      <c r="H10" s="400" t="n"/>
+      <c r="I10" s="398" t="n"/>
+      <c r="J10" s="401" t="inlineStr">
         <is>
           <t>[위례중앙중 국어] 독후감(시하와 칸타의 장: 마트 이야기)</t>
         </is>
@@ -24794,22 +24853,22 @@
         <v>2</v>
       </c>
       <c r="D11" s="359" t="n"/>
-      <c r="E11" s="393" t="inlineStr">
+      <c r="E11" s="397" t="inlineStr">
         <is>
           <t>위례중앙중 국어학원</t>
         </is>
       </c>
-      <c r="F11" s="164" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="208" t="inlineStr">
+      <c r="F11" s="398" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="404" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" s="155" t="n"/>
-      <c r="I11" s="164" t="n"/>
-      <c r="J11" s="206" t="inlineStr">
+      <c r="H11" s="400" t="n"/>
+      <c r="I11" s="398" t="n"/>
+      <c r="J11" s="401" t="inlineStr">
         <is>
           <t>[위례중앙중 국어] 독후감(시하와 칸타의 장: 마트 이야기)</t>
         </is>
@@ -24826,22 +24885,22 @@
           <t>한빛중</t>
         </is>
       </c>
-      <c r="E12" s="393" t="inlineStr">
+      <c r="E12" s="397" t="inlineStr">
         <is>
           <t>한빛중 국어</t>
         </is>
       </c>
-      <c r="F12" s="115" t="n">
+      <c r="F12" s="398" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="137" t="inlineStr">
+      <c r="G12" s="404" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="H12" s="118" t="n"/>
-      <c r="I12" s="115" t="n"/>
-      <c r="J12" s="206" t="inlineStr">
+      <c r="H12" s="400" t="n"/>
+      <c r="I12" s="398" t="n"/>
+      <c r="J12" s="401" t="inlineStr">
         <is>
           <t>위례한빛고등학교 - 한빛고 국어1학년 내신 분석 (2021년 1학기 1차 지필평가)</t>
         </is>
@@ -24854,22 +24913,22 @@
         <v>2</v>
       </c>
       <c r="D13" s="357" t="n"/>
-      <c r="E13" s="393" t="inlineStr">
+      <c r="E13" s="397" t="inlineStr">
         <is>
           <t>위례한빛중 국어</t>
         </is>
       </c>
-      <c r="F13" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="137" t="inlineStr">
+      <c r="F13" s="398" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="404" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H13" s="118" t="n"/>
-      <c r="I13" s="115" t="n"/>
-      <c r="J13" s="206" t="inlineStr">
+      <c r="H13" s="400" t="n"/>
+      <c r="I13" s="398" t="n"/>
+      <c r="J13" s="401" t="inlineStr">
         <is>
           <t>위례한빛고등학교 - 한빛고 국어1학년 내신 분석 (2021년 1학기 1차 지필평가)</t>
         </is>
@@ -24882,22 +24941,22 @@
         <v>2</v>
       </c>
       <c r="D14" s="359" t="n"/>
-      <c r="E14" s="393" t="inlineStr">
+      <c r="E14" s="405" t="inlineStr">
         <is>
           <t>한빛중 국어학원</t>
         </is>
       </c>
-      <c r="F14" s="239" t="n">
+      <c r="F14" s="393" t="n">
         <v>6</v>
       </c>
-      <c r="G14" s="243" t="inlineStr">
+      <c r="G14" s="406" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="H14" s="241" t="n"/>
-      <c r="I14" s="239" t="n"/>
-      <c r="J14" s="242" t="inlineStr">
+      <c r="H14" s="395" t="n"/>
+      <c r="I14" s="393" t="n"/>
+      <c r="J14" s="396" t="inlineStr">
         <is>
           <t>[한빛고등학교] 지은선생이 이야기 해주는 중·고등학생이 알면 좋은 지식 - 한빛고국어 내신전문 학원...</t>
         </is>
@@ -24914,22 +24973,22 @@
           <t>위례중</t>
         </is>
       </c>
-      <c r="E15" s="393" t="inlineStr">
+      <c r="E15" s="405" t="inlineStr">
         <is>
           <t>위례중 국어</t>
         </is>
       </c>
-      <c r="F15" s="239" t="n">
+      <c r="F15" s="393" t="n">
         <v>20</v>
       </c>
-      <c r="G15" s="243" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H15" s="241" t="n"/>
-      <c r="I15" s="239" t="n"/>
-      <c r="J15" s="242" t="inlineStr">
+      <c r="G15" s="406" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H15" s="395" t="n"/>
+      <c r="I15" s="393" t="n"/>
+      <c r="J15" s="396" t="inlineStr">
         <is>
           <t>[위례국어학원] 시험을 잘 보기를 바라는 마음에서</t>
         </is>
@@ -24942,22 +25001,22 @@
         <v>2</v>
       </c>
       <c r="D16" s="357" t="n"/>
-      <c r="E16" s="393" t="inlineStr">
+      <c r="E16" s="397" t="inlineStr">
         <is>
           <t>위례중학교 국어</t>
         </is>
       </c>
-      <c r="F16" s="115" t="n">
+      <c r="F16" s="398" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H16" s="118" t="n"/>
-      <c r="I16" s="115" t="n"/>
-      <c r="J16" s="206" t="inlineStr">
+      <c r="G16" s="404" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="400" t="n"/>
+      <c r="I16" s="398" t="n"/>
+      <c r="J16" s="401" t="inlineStr">
         <is>
           <t>위례중학교 3학년 2020학년도 2학기 국어 기말고사 기출분석 및 기말고사 대비 (위례국어학원 송현학원)</t>
         </is>
@@ -24970,22 +25029,22 @@
         <v>2</v>
       </c>
       <c r="D17" s="359" t="n"/>
-      <c r="E17" s="393" t="inlineStr">
+      <c r="E17" s="405" t="inlineStr">
         <is>
           <t>위례중 국어학원</t>
         </is>
       </c>
-      <c r="F17" s="239" t="n">
+      <c r="F17" s="393" t="n">
         <v>13</v>
       </c>
-      <c r="G17" s="243" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H17" s="241" t="n"/>
-      <c r="I17" s="239" t="n"/>
-      <c r="J17" s="242" t="inlineStr">
+      <c r="G17" s="406" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H17" s="395" t="n"/>
+      <c r="I17" s="393" t="n"/>
+      <c r="J17" s="396" t="inlineStr">
         <is>
           <t>[위례국어학원] 시험을 잘 보기를 바라는 마음에서</t>
         </is>
@@ -25002,22 +25061,22 @@
           <t>송례중</t>
         </is>
       </c>
-      <c r="E18" s="393" t="inlineStr">
+      <c r="E18" s="397" t="inlineStr">
         <is>
           <t>송례중 국어</t>
         </is>
       </c>
-      <c r="F18" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="137" t="inlineStr">
+      <c r="F18" s="398" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="404" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H18" s="118" t="n"/>
-      <c r="I18" s="115" t="n"/>
-      <c r="J18" s="206" t="inlineStr">
+      <c r="H18" s="400" t="n"/>
+      <c r="I18" s="398" t="n"/>
+      <c r="J18" s="401" t="inlineStr">
         <is>
           <t>(송례중학교) 송례중내신 중2국어 중간고사 기출분석 및 기말고사 대비 2020학년2학기</t>
         </is>
@@ -25030,22 +25089,22 @@
         <v>2</v>
       </c>
       <c r="D19" s="358" t="n"/>
-      <c r="E19" s="393" t="inlineStr">
+      <c r="E19" s="397" t="inlineStr">
         <is>
           <t>위례송례중 국어</t>
         </is>
       </c>
-      <c r="F19" s="115" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" s="137" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H19" s="118" t="n"/>
-      <c r="I19" s="115" t="n"/>
-      <c r="J19" s="206" t="inlineStr">
+      <c r="F19" s="398" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="404" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="400" t="n"/>
+      <c r="I19" s="398" t="n"/>
+      <c r="J19" s="401" t="inlineStr">
         <is>
           <t>[위례수학학원] 2020학년 송례중 2학년2학기 수학기말고사 분석</t>
         </is>
@@ -25058,22 +25117,22 @@
         <v>2</v>
       </c>
       <c r="D20" s="362" t="n"/>
-      <c r="E20" s="394" t="inlineStr">
+      <c r="E20" s="402" t="inlineStr">
         <is>
           <t>송례중 국어학원</t>
         </is>
       </c>
-      <c r="F20" s="115" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="115" t="inlineStr">
+      <c r="F20" s="398" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="398" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H20" s="115" t="n"/>
-      <c r="I20" s="115" t="n"/>
-      <c r="J20" s="206" t="inlineStr">
+      <c r="H20" s="398" t="n"/>
+      <c r="I20" s="398" t="n"/>
+      <c r="J20" s="401" t="inlineStr">
         <is>
           <t>(송례중학교) 송례중내신 중2국어 중간고사 기출분석 및 기말고사 대비 2020학년2학기</t>
         </is>
@@ -25094,22 +25153,22 @@
           <t>위례</t>
         </is>
       </c>
-      <c r="E21" s="393" t="inlineStr">
+      <c r="E21" s="405" t="inlineStr">
         <is>
           <t>위례국어</t>
         </is>
       </c>
-      <c r="F21" s="239" t="n">
+      <c r="F21" s="393" t="n">
         <v>17</v>
       </c>
-      <c r="G21" s="239" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="H21" s="239" t="n"/>
-      <c r="I21" s="239" t="n"/>
-      <c r="J21" s="242" t="inlineStr">
+      <c r="G21" s="393" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H21" s="393" t="n"/>
+      <c r="I21" s="393" t="n"/>
+      <c r="J21" s="396" t="inlineStr">
         <is>
           <t>위례 국어 (송현 국어 학원 ) - 예비고1, 예비중2 개강 (12월 4일)</t>
         </is>
@@ -25122,22 +25181,22 @@
         <v>1</v>
       </c>
       <c r="D22" s="358" t="n"/>
-      <c r="E22" s="394" t="inlineStr">
+      <c r="E22" s="409" t="inlineStr">
         <is>
           <t>위례국어학원</t>
         </is>
       </c>
-      <c r="F22" s="239" t="n">
+      <c r="F22" s="393" t="n">
         <v>10</v>
       </c>
-      <c r="G22" s="239" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H22" s="239" t="n"/>
-      <c r="I22" s="239" t="n"/>
-      <c r="J22" s="242" t="inlineStr">
+      <c r="G22" s="393" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H22" s="393" t="n"/>
+      <c r="I22" s="393" t="n"/>
+      <c r="J22" s="396" t="inlineStr">
         <is>
           <t>위례 국어 (송현 국어 학원 ) - 예비고1, 예비중2 개강 (12월 4일)</t>
         </is>
@@ -25150,22 +25209,22 @@
         <v>2</v>
       </c>
       <c r="D23" s="358" t="n"/>
-      <c r="E23" s="394" t="inlineStr">
+      <c r="E23" s="409" t="inlineStr">
         <is>
           <t>위례고등국어</t>
         </is>
       </c>
-      <c r="F23" s="239" t="n">
+      <c r="F23" s="393" t="n">
         <v>24</v>
       </c>
-      <c r="G23" s="239" t="inlineStr">
+      <c r="G23" s="393" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="H23" s="239" t="n"/>
-      <c r="I23" s="239" t="n"/>
-      <c r="J23" s="242" t="inlineStr">
+      <c r="H23" s="393" t="n"/>
+      <c r="I23" s="393" t="n"/>
+      <c r="J23" s="396" t="inlineStr">
         <is>
           <t>중·고등학생이 알면 좋은 인문학 지식 - 역사편①... 직선적시간관 (위례고국어, 한빛고국어 등 고등국어내...</t>
         </is>
@@ -25178,22 +25237,22 @@
         <v>2</v>
       </c>
       <c r="D24" s="358" t="n"/>
-      <c r="E24" s="394" t="inlineStr">
+      <c r="E24" s="409" t="inlineStr">
         <is>
           <t>위례고등국어학원</t>
         </is>
       </c>
-      <c r="F24" s="239" t="n">
+      <c r="F24" s="393" t="n">
         <v>29</v>
       </c>
-      <c r="G24" s="239" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H24" s="239" t="n"/>
-      <c r="I24" s="239" t="n"/>
-      <c r="J24" s="242" t="inlineStr">
+      <c r="G24" s="393" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H24" s="393" t="n"/>
+      <c r="I24" s="393" t="n"/>
+      <c r="J24" s="396" t="inlineStr">
         <is>
           <t>위례국어학원 - 송현국어학원 2021학년도 2학기 기말고사 준비! 및 시간표</t>
         </is>
@@ -25206,24 +25265,24 @@
         <v>2</v>
       </c>
       <c r="D25" s="358" t="n"/>
-      <c r="E25" s="394" t="inlineStr">
+      <c r="E25" s="409" t="inlineStr">
         <is>
           <t>위례중등국어</t>
         </is>
       </c>
-      <c r="F25" s="239" t="inlineStr">
+      <c r="F25" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G25" s="239" t="inlineStr">
+      <c r="G25" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H25" s="239" t="n"/>
-      <c r="I25" s="239" t="n"/>
-      <c r="J25" s="242" t="inlineStr">
+      <c r="H25" s="393" t="n"/>
+      <c r="I25" s="393" t="n"/>
+      <c r="J25" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -25236,22 +25295,22 @@
         <v>2</v>
       </c>
       <c r="D26" s="358" t="n"/>
-      <c r="E26" s="394" t="inlineStr">
+      <c r="E26" s="409" t="inlineStr">
         <is>
           <t>위례중등국어학원</t>
         </is>
       </c>
-      <c r="F26" s="239" t="n">
+      <c r="F26" s="393" t="n">
         <v>22</v>
       </c>
-      <c r="G26" s="239" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H26" s="239" t="n"/>
-      <c r="I26" s="239" t="n"/>
-      <c r="J26" s="242" t="inlineStr">
+      <c r="G26" s="393" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H26" s="393" t="n"/>
+      <c r="I26" s="393" t="n"/>
+      <c r="J26" s="396" t="inlineStr">
         <is>
           <t>위례 국어 (송현 국어 학원 ) - 예비고1, 예비중2 개강 (12월 4일)</t>
         </is>
@@ -25264,22 +25323,22 @@
         <v>2</v>
       </c>
       <c r="D27" s="358" t="n"/>
-      <c r="E27" s="394" t="inlineStr">
+      <c r="E27" s="409" t="inlineStr">
         <is>
           <t>위례수능국어</t>
         </is>
       </c>
-      <c r="F27" s="239" t="n">
+      <c r="F27" s="393" t="n">
         <v>11</v>
       </c>
-      <c r="G27" s="239" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H27" s="239" t="n"/>
-      <c r="I27" s="239" t="n"/>
-      <c r="J27" s="242" t="inlineStr">
+      <c r="G27" s="393" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H27" s="393" t="n"/>
+      <c r="I27" s="393" t="n"/>
+      <c r="J27" s="396" t="inlineStr">
         <is>
           <t>위례국어학원 - 한빛고 2학년 중간고사 국어 내신 분석 2021년 1학기 1차 지필평가(중간고사)</t>
         </is>
@@ -25292,22 +25351,22 @@
         <v>2</v>
       </c>
       <c r="D28" s="358" t="n"/>
-      <c r="E28" s="394" t="inlineStr">
+      <c r="E28" s="409" t="inlineStr">
         <is>
           <t>위례수능국어학원</t>
         </is>
       </c>
-      <c r="F28" s="239" t="n">
+      <c r="F28" s="393" t="n">
         <v>9</v>
       </c>
-      <c r="G28" s="239" t="inlineStr">
+      <c r="G28" s="393" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H28" s="239" t="n"/>
-      <c r="I28" s="239" t="n"/>
-      <c r="J28" s="242" t="inlineStr">
+      <c r="H28" s="393" t="n"/>
+      <c r="I28" s="393" t="n"/>
+      <c r="J28" s="396" t="inlineStr">
         <is>
           <t>위례국어학원 - 한빛고 2학년 중간고사 국어 내신 분석 2021년 1학기 1차 지필평가(중간고사)</t>
         </is>
@@ -25320,24 +25379,24 @@
         <v>2</v>
       </c>
       <c r="D29" s="362" t="n"/>
-      <c r="E29" s="394" t="inlineStr">
+      <c r="E29" s="409" t="inlineStr">
         <is>
           <t>위례독서논술</t>
         </is>
       </c>
-      <c r="F29" s="239" t="inlineStr">
+      <c r="F29" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G29" s="239" t="inlineStr">
+      <c r="G29" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H29" s="239" t="n"/>
-      <c r="I29" s="239" t="n"/>
-      <c r="J29" s="242" t="inlineStr">
+      <c r="H29" s="393" t="n"/>
+      <c r="I29" s="393" t="n"/>
+      <c r="J29" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -25354,22 +25413,22 @@
           <t>위례중앙</t>
         </is>
       </c>
-      <c r="E30" s="393" t="inlineStr">
+      <c r="E30" s="405" t="inlineStr">
         <is>
           <t>위례중앙타워 국어</t>
         </is>
       </c>
-      <c r="F30" s="239" t="n">
+      <c r="F30" s="393" t="n">
         <v>6</v>
       </c>
-      <c r="G30" s="239" t="inlineStr">
+      <c r="G30" s="393" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="H30" s="239" t="n"/>
-      <c r="I30" s="239" t="n"/>
-      <c r="J30" s="242" t="inlineStr">
+      <c r="H30" s="393" t="n"/>
+      <c r="I30" s="393" t="n"/>
+      <c r="J30" s="396" t="inlineStr">
         <is>
           <t>위례 국어 (송현 국어 학원 ) - 예비고1, 예비중2 개강 (12월 4일)</t>
         </is>
@@ -25382,22 +25441,22 @@
         <v>2</v>
       </c>
       <c r="D31" s="358" t="n"/>
-      <c r="E31" s="393" t="inlineStr">
+      <c r="E31" s="405" t="inlineStr">
         <is>
           <t>위례중앙타워 국어학원</t>
         </is>
       </c>
-      <c r="F31" s="239" t="n">
+      <c r="F31" s="393" t="n">
         <v>13</v>
       </c>
-      <c r="G31" s="239" t="inlineStr">
+      <c r="G31" s="393" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H31" s="239" t="n"/>
-      <c r="I31" s="239" t="n"/>
-      <c r="J31" s="242" t="inlineStr">
+      <c r="H31" s="393" t="n"/>
+      <c r="I31" s="393" t="n"/>
+      <c r="J31" s="396" t="inlineStr">
         <is>
           <t>위례 국어 (송현 국어 학원 ) - 예비고1, 예비중2 개강 (12월 4일)</t>
         </is>
@@ -25410,22 +25469,22 @@
         <v>2</v>
       </c>
       <c r="D32" s="358" t="n"/>
-      <c r="E32" s="394" t="inlineStr">
+      <c r="E32" s="402" t="inlineStr">
         <is>
           <t>위례중앙타워 송현국어</t>
         </is>
       </c>
-      <c r="F32" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="115" t="inlineStr">
+      <c r="F32" s="398" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="398" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H32" s="115" t="n"/>
-      <c r="I32" s="115" t="n"/>
-      <c r="J32" s="206" t="inlineStr">
+      <c r="H32" s="398" t="n"/>
+      <c r="I32" s="398" t="n"/>
+      <c r="J32" s="401" t="inlineStr">
         <is>
           <t>위례 국어 (송현 국어 학원 ) - 예비고1, 예비중2 개강 (12월 4일)</t>
         </is>
@@ -25442,24 +25501,24 @@
           <t>위례동</t>
         </is>
       </c>
-      <c r="E33" s="394" t="inlineStr">
+      <c r="E33" s="409" t="inlineStr">
         <is>
           <t>위례동국어</t>
         </is>
       </c>
-      <c r="F33" s="239" t="inlineStr">
+      <c r="F33" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G33" s="239" t="inlineStr">
+      <c r="G33" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H33" s="239" t="n"/>
-      <c r="I33" s="239" t="n"/>
-      <c r="J33" s="242" t="inlineStr">
+      <c r="H33" s="393" t="n"/>
+      <c r="I33" s="393" t="n"/>
+      <c r="J33" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -25472,24 +25531,24 @@
         <v>2</v>
       </c>
       <c r="D34" s="362" t="n"/>
-      <c r="E34" s="393" t="inlineStr">
+      <c r="E34" s="405" t="inlineStr">
         <is>
           <t>위례동국어학원</t>
         </is>
       </c>
-      <c r="F34" s="239" t="inlineStr">
+      <c r="F34" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G34" s="239" t="inlineStr">
+      <c r="G34" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H34" s="239" t="n"/>
-      <c r="I34" s="239" t="n"/>
-      <c r="J34" s="242" t="inlineStr">
+      <c r="H34" s="393" t="n"/>
+      <c r="I34" s="393" t="n"/>
+      <c r="J34" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -25506,24 +25565,24 @@
           <t>성남</t>
         </is>
       </c>
-      <c r="E35" s="396" t="inlineStr">
+      <c r="E35" s="410" t="inlineStr">
         <is>
           <t>성남국어</t>
         </is>
       </c>
-      <c r="F35" s="239" t="inlineStr">
+      <c r="F35" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G35" s="239" t="inlineStr">
+      <c r="G35" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H35" s="239" t="n"/>
-      <c r="I35" s="239" t="n"/>
-      <c r="J35" s="242" t="inlineStr">
+      <c r="H35" s="393" t="n"/>
+      <c r="I35" s="393" t="n"/>
+      <c r="J35" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -25536,24 +25595,24 @@
         <v>3</v>
       </c>
       <c r="D36" s="358" t="n"/>
-      <c r="E36" s="396" t="inlineStr">
+      <c r="E36" s="410" t="inlineStr">
         <is>
           <t>성남국어학원</t>
         </is>
       </c>
-      <c r="F36" s="239" t="inlineStr">
+      <c r="F36" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G36" s="239" t="inlineStr">
+      <c r="G36" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H36" s="239" t="n"/>
-      <c r="I36" s="239" t="n"/>
-      <c r="J36" s="242" t="inlineStr">
+      <c r="H36" s="393" t="n"/>
+      <c r="I36" s="393" t="n"/>
+      <c r="J36" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -25570,24 +25629,24 @@
           <t>수정구</t>
         </is>
       </c>
-      <c r="E37" s="393" t="inlineStr">
+      <c r="E37" s="405" t="inlineStr">
         <is>
           <t>수정구국어</t>
         </is>
       </c>
-      <c r="F37" s="239" t="inlineStr">
+      <c r="F37" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G37" s="239" t="inlineStr">
+      <c r="G37" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H37" s="239" t="n"/>
-      <c r="I37" s="239" t="n"/>
-      <c r="J37" s="242" t="inlineStr">
+      <c r="H37" s="393" t="n"/>
+      <c r="I37" s="393" t="n"/>
+      <c r="J37" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -25600,24 +25659,24 @@
         <v>3</v>
       </c>
       <c r="D38" s="362" t="n"/>
-      <c r="E38" s="393" t="inlineStr">
+      <c r="E38" s="405" t="inlineStr">
         <is>
           <t>수정구국어학원</t>
         </is>
       </c>
-      <c r="F38" s="239" t="inlineStr">
+      <c r="F38" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G38" s="239" t="inlineStr">
+      <c r="G38" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H38" s="239" t="n"/>
-      <c r="I38" s="239" t="n"/>
-      <c r="J38" s="242" t="inlineStr">
+      <c r="H38" s="393" t="n"/>
+      <c r="I38" s="393" t="n"/>
+      <c r="J38" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -25634,24 +25693,24 @@
           <t>창곡동</t>
         </is>
       </c>
-      <c r="E39" s="396" t="inlineStr">
+      <c r="E39" s="410" t="inlineStr">
         <is>
           <t>창곡동국어</t>
         </is>
       </c>
-      <c r="F39" s="239" t="inlineStr">
+      <c r="F39" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G39" s="239" t="inlineStr">
+      <c r="G39" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H39" s="239" t="n"/>
-      <c r="I39" s="239" t="n"/>
-      <c r="J39" s="242" t="inlineStr">
+      <c r="H39" s="393" t="n"/>
+      <c r="I39" s="393" t="n"/>
+      <c r="J39" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -25664,22 +25723,22 @@
         <v>3</v>
       </c>
       <c r="D40" s="362" t="n"/>
-      <c r="E40" s="393" t="inlineStr">
+      <c r="E40" s="405" t="inlineStr">
         <is>
           <t>창곡동국어학원</t>
         </is>
       </c>
-      <c r="F40" s="239" t="n">
+      <c r="F40" s="393" t="n">
         <v>19</v>
       </c>
-      <c r="G40" s="239" t="inlineStr">
+      <c r="G40" s="393" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="H40" s="239" t="n"/>
-      <c r="I40" s="239" t="n"/>
-      <c r="J40" s="242" t="inlineStr">
+      <c r="H40" s="393" t="n"/>
+      <c r="I40" s="393" t="n"/>
+      <c r="J40" s="396" t="inlineStr">
         <is>
           <t>[창곡동국어학원] 위례송현학원 여름방학 3주완성 문법특강!</t>
         </is>
@@ -25696,24 +25755,24 @@
           <t>장지동</t>
         </is>
       </c>
-      <c r="E41" s="396" t="inlineStr">
+      <c r="E41" s="410" t="inlineStr">
         <is>
           <t>장지동국어</t>
         </is>
       </c>
-      <c r="F41" s="239" t="inlineStr">
+      <c r="F41" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G41" s="239" t="inlineStr">
+      <c r="G41" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H41" s="239" t="n"/>
-      <c r="I41" s="239" t="n"/>
-      <c r="J41" s="242" t="inlineStr">
+      <c r="H41" s="393" t="n"/>
+      <c r="I41" s="393" t="n"/>
+      <c r="J41" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -25726,24 +25785,24 @@
         <v>3</v>
       </c>
       <c r="D42" s="362" t="n"/>
-      <c r="E42" s="396" t="inlineStr">
+      <c r="E42" s="410" t="inlineStr">
         <is>
           <t>장지동국어학원</t>
         </is>
       </c>
-      <c r="F42" s="239" t="inlineStr">
+      <c r="F42" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G42" s="239" t="inlineStr">
+      <c r="G42" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H42" s="239" t="n"/>
-      <c r="I42" s="239" t="n"/>
-      <c r="J42" s="242" t="inlineStr">
+      <c r="H42" s="393" t="n"/>
+      <c r="I42" s="393" t="n"/>
+      <c r="J42" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -25824,7 +25883,7 @@
       </c>
       <c r="G1" s="355" t="inlineStr">
         <is>
-          <t>2022-01-21 20:06:57.493921</t>
+          <t>2022-01-24 15:33:06.348971</t>
         </is>
       </c>
       <c r="H1" s="356" t="n"/>
@@ -25846,26 +25905,26 @@
           <t>위례고</t>
         </is>
       </c>
-      <c r="E2" s="244" t="inlineStr">
+      <c r="E2" s="411" t="inlineStr">
         <is>
           <t>위례고수학</t>
         </is>
       </c>
-      <c r="F2" s="239" t="inlineStr">
+      <c r="F2" s="398" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G2" s="240" t="inlineStr">
-        <is>
-          <t>순위없음</t>
-        </is>
-      </c>
-      <c r="H2" s="241" t="n"/>
-      <c r="I2" s="239" t="n"/>
-      <c r="J2" s="242" t="inlineStr">
-        <is>
-          <t>게시물 없음</t>
+      <c r="G2" s="399" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" s="400" t="n"/>
+      <c r="I2" s="398" t="n"/>
+      <c r="J2" s="401" t="inlineStr">
+        <is>
+          <t>[위례수학경시] 성균관대 '제43회 전국 초중고 수학 학력경시대회' 대비 방법</t>
         </is>
       </c>
     </row>
@@ -25876,24 +25935,24 @@
         <v>2</v>
       </c>
       <c r="D3" s="359" t="n"/>
-      <c r="E3" s="245" t="inlineStr">
+      <c r="E3" s="405" t="inlineStr">
         <is>
           <t>위례고수학내신</t>
         </is>
       </c>
-      <c r="F3" s="239" t="inlineStr">
+      <c r="F3" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G3" s="240" t="inlineStr">
+      <c r="G3" s="394" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H3" s="241" t="n"/>
-      <c r="I3" s="239" t="n"/>
-      <c r="J3" s="242" t="inlineStr">
+      <c r="H3" s="395" t="n"/>
+      <c r="I3" s="393" t="n"/>
+      <c r="J3" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -25910,24 +25969,24 @@
           <t>한빛고</t>
         </is>
       </c>
-      <c r="E4" s="246" t="inlineStr">
+      <c r="E4" s="409" t="inlineStr">
         <is>
           <t>한빛고수학</t>
         </is>
       </c>
-      <c r="F4" s="239" t="inlineStr">
+      <c r="F4" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G4" s="240" t="inlineStr">
+      <c r="G4" s="394" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H4" s="241" t="n"/>
-      <c r="I4" s="239" t="n"/>
-      <c r="J4" s="248" t="inlineStr">
+      <c r="H4" s="395" t="n"/>
+      <c r="I4" s="393" t="n"/>
+      <c r="J4" s="412" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -25940,24 +25999,24 @@
         <v>2</v>
       </c>
       <c r="D5" s="359" t="n"/>
-      <c r="E5" s="246" t="inlineStr">
+      <c r="E5" s="409" t="inlineStr">
         <is>
           <t>한빛고수학내신</t>
         </is>
       </c>
-      <c r="F5" s="239" t="inlineStr">
+      <c r="F5" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G5" s="243" t="inlineStr">
+      <c r="G5" s="406" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H5" s="241" t="n"/>
-      <c r="I5" s="239" t="n"/>
-      <c r="J5" s="242" t="inlineStr">
+      <c r="H5" s="395" t="n"/>
+      <c r="I5" s="393" t="n"/>
+      <c r="J5" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -25974,24 +26033,24 @@
           <t>덕수고</t>
         </is>
       </c>
-      <c r="E6" s="245" t="inlineStr">
+      <c r="E6" s="405" t="inlineStr">
         <is>
           <t>덕수고수학</t>
         </is>
       </c>
-      <c r="F6" s="239" t="inlineStr">
+      <c r="F6" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G6" s="243" t="inlineStr">
+      <c r="G6" s="406" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H6" s="241" t="n"/>
-      <c r="I6" s="239" t="n"/>
-      <c r="J6" s="242" t="inlineStr">
+      <c r="H6" s="395" t="n"/>
+      <c r="I6" s="393" t="n"/>
+      <c r="J6" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26004,24 +26063,24 @@
         <v>2</v>
       </c>
       <c r="D7" s="357" t="n"/>
-      <c r="E7" s="240" t="inlineStr">
+      <c r="E7" s="394" t="inlineStr">
         <is>
           <t>덕수고수학내신</t>
         </is>
       </c>
-      <c r="F7" s="239" t="inlineStr">
+      <c r="F7" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G7" s="239" t="inlineStr">
+      <c r="G7" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H7" s="239" t="n"/>
-      <c r="I7" s="239" t="n"/>
-      <c r="J7" s="242" t="inlineStr">
+      <c r="H7" s="393" t="n"/>
+      <c r="I7" s="393" t="n"/>
+      <c r="J7" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26034,24 +26093,24 @@
         <v>2</v>
       </c>
       <c r="D8" s="359" t="n"/>
-      <c r="E8" s="240" t="inlineStr">
+      <c r="E8" s="394" t="inlineStr">
         <is>
           <t>위례덕수고 수학</t>
         </is>
       </c>
-      <c r="F8" s="239" t="inlineStr">
+      <c r="F8" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G8" s="239" t="inlineStr">
+      <c r="G8" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H8" s="239" t="n"/>
-      <c r="I8" s="239" t="n"/>
-      <c r="J8" s="242" t="inlineStr">
+      <c r="H8" s="393" t="n"/>
+      <c r="I8" s="393" t="n"/>
+      <c r="J8" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26068,24 +26127,24 @@
           <t>중앙중</t>
         </is>
       </c>
-      <c r="E9" s="246" t="inlineStr">
+      <c r="E9" s="409" t="inlineStr">
         <is>
           <t>위례중앙중 수학</t>
         </is>
       </c>
-      <c r="F9" s="249" t="inlineStr">
+      <c r="F9" s="413" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G9" s="243" t="inlineStr">
+      <c r="G9" s="406" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H9" s="250" t="n"/>
-      <c r="I9" s="249" t="n"/>
-      <c r="J9" s="242" t="inlineStr">
+      <c r="H9" s="414" t="n"/>
+      <c r="I9" s="413" t="n"/>
+      <c r="J9" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26098,24 +26157,24 @@
         <v>2</v>
       </c>
       <c r="D10" s="357" t="n"/>
-      <c r="E10" s="245" t="inlineStr">
+      <c r="E10" s="405" t="inlineStr">
         <is>
           <t>위례중앙중학교 수학</t>
         </is>
       </c>
-      <c r="F10" s="239" t="inlineStr">
+      <c r="F10" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G10" s="243" t="inlineStr">
+      <c r="G10" s="406" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H10" s="241" t="n"/>
-      <c r="I10" s="239" t="n"/>
-      <c r="J10" s="242" t="inlineStr">
+      <c r="H10" s="395" t="n"/>
+      <c r="I10" s="393" t="n"/>
+      <c r="J10" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26128,24 +26187,24 @@
         <v>2</v>
       </c>
       <c r="D11" s="359" t="n"/>
-      <c r="E11" s="245" t="inlineStr">
+      <c r="E11" s="405" t="inlineStr">
         <is>
           <t>위례중앙중 수학학원</t>
         </is>
       </c>
-      <c r="F11" s="239" t="inlineStr">
+      <c r="F11" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G11" s="243" t="inlineStr">
+      <c r="G11" s="406" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="H11" s="241" t="n"/>
-      <c r="I11" s="239" t="n"/>
-      <c r="J11" s="242" t="inlineStr">
+      <c r="H11" s="395" t="n"/>
+      <c r="I11" s="393" t="n"/>
+      <c r="J11" s="396" t="inlineStr">
         <is>
           <t>[위례수학학원] 2021학년도 후기 특목자사고 입시일정 안내</t>
         </is>
@@ -26162,24 +26221,24 @@
           <t>한빛중</t>
         </is>
       </c>
-      <c r="E12" s="245" t="inlineStr">
+      <c r="E12" s="405" t="inlineStr">
         <is>
           <t>한빛중 수학</t>
         </is>
       </c>
-      <c r="F12" s="239" t="inlineStr">
+      <c r="F12" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G12" s="243" t="inlineStr">
+      <c r="G12" s="406" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H12" s="241" t="n"/>
-      <c r="I12" s="239" t="n"/>
-      <c r="J12" s="242" t="inlineStr">
+      <c r="H12" s="395" t="n"/>
+      <c r="I12" s="393" t="n"/>
+      <c r="J12" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26192,24 +26251,24 @@
         <v>2</v>
       </c>
       <c r="D13" s="357" t="n"/>
-      <c r="E13" s="245" t="inlineStr">
+      <c r="E13" s="405" t="inlineStr">
         <is>
           <t>위례한빛중 수학</t>
         </is>
       </c>
-      <c r="F13" s="239" t="inlineStr">
+      <c r="F13" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G13" s="243" t="inlineStr">
+      <c r="G13" s="406" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H13" s="241" t="n"/>
-      <c r="I13" s="239" t="n"/>
-      <c r="J13" s="242" t="inlineStr">
+      <c r="H13" s="395" t="n"/>
+      <c r="I13" s="393" t="n"/>
+      <c r="J13" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26222,24 +26281,24 @@
         <v>2</v>
       </c>
       <c r="D14" s="359" t="n"/>
-      <c r="E14" s="245" t="inlineStr">
+      <c r="E14" s="405" t="inlineStr">
         <is>
           <t>한빛중 수학학원</t>
         </is>
       </c>
-      <c r="F14" s="239" t="inlineStr">
+      <c r="F14" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G14" s="243" t="inlineStr">
+      <c r="G14" s="406" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H14" s="241" t="n"/>
-      <c r="I14" s="239" t="n"/>
-      <c r="J14" s="242" t="inlineStr">
+      <c r="H14" s="395" t="n"/>
+      <c r="I14" s="393" t="n"/>
+      <c r="J14" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26256,22 +26315,22 @@
           <t>위례중</t>
         </is>
       </c>
-      <c r="E15" s="245" t="inlineStr">
+      <c r="E15" s="405" t="inlineStr">
         <is>
           <t>위례중 수학</t>
         </is>
       </c>
-      <c r="F15" s="239" t="n">
+      <c r="F15" s="393" t="n">
         <v>18</v>
       </c>
-      <c r="G15" s="243" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H15" s="241" t="n"/>
-      <c r="I15" s="239" t="n"/>
-      <c r="J15" s="242" t="inlineStr">
+      <c r="G15" s="406" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H15" s="395" t="n"/>
+      <c r="I15" s="393" t="n"/>
+      <c r="J15" s="396" t="inlineStr">
         <is>
           <t>[위례수학학원] 2022학년도 서울지역 후기 특목자사고 경쟁률 분석</t>
         </is>
@@ -26284,22 +26343,22 @@
         <v>2</v>
       </c>
       <c r="D16" s="357" t="n"/>
-      <c r="E16" s="245" t="inlineStr">
+      <c r="E16" s="405" t="inlineStr">
         <is>
           <t>위례중학교 수학</t>
         </is>
       </c>
-      <c r="F16" s="239" t="n">
+      <c r="F16" s="393" t="n">
         <v>30</v>
       </c>
-      <c r="G16" s="243" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="H16" s="241" t="n"/>
-      <c r="I16" s="239" t="n"/>
-      <c r="J16" s="242" t="inlineStr">
+      <c r="G16" s="406" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H16" s="395" t="n"/>
+      <c r="I16" s="393" t="n"/>
+      <c r="J16" s="396" t="inlineStr">
         <is>
           <t>[위례수학학원] 중등 수학 2학기 내신의 중요성2</t>
         </is>
@@ -26312,22 +26371,22 @@
         <v>2</v>
       </c>
       <c r="D17" s="359" t="n"/>
-      <c r="E17" s="245" t="inlineStr">
+      <c r="E17" s="405" t="inlineStr">
         <is>
           <t>위례중 수학학원</t>
         </is>
       </c>
-      <c r="F17" s="239" t="n">
+      <c r="F17" s="393" t="n">
         <v>12</v>
       </c>
-      <c r="G17" s="243" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H17" s="241" t="n"/>
-      <c r="I17" s="239" t="n"/>
-      <c r="J17" s="242" t="inlineStr">
+      <c r="G17" s="406" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H17" s="395" t="n"/>
+      <c r="I17" s="393" t="n"/>
+      <c r="J17" s="396" t="inlineStr">
         <is>
           <t>[위례수학학원] 2022학년도 서울지역 후기 특목자사고 경쟁률 분석</t>
         </is>
@@ -26344,22 +26403,22 @@
           <t>송례중</t>
         </is>
       </c>
-      <c r="E18" s="117" t="inlineStr">
+      <c r="E18" s="397" t="inlineStr">
         <is>
           <t>송례중 수학</t>
         </is>
       </c>
-      <c r="F18" s="115" t="n">
+      <c r="F18" s="398" t="n">
         <v>4</v>
       </c>
-      <c r="G18" s="137" t="inlineStr">
+      <c r="G18" s="404" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="H18" s="118" t="n"/>
-      <c r="I18" s="115" t="n"/>
-      <c r="J18" s="206" t="inlineStr">
+      <c r="H18" s="400" t="n"/>
+      <c r="I18" s="398" t="n"/>
+      <c r="J18" s="401" t="inlineStr">
         <is>
           <t>[위례수학학원] 2020학년 송례중 2학년2학기 수학기말고사 분석</t>
         </is>
@@ -26372,22 +26431,22 @@
         <v>2</v>
       </c>
       <c r="D19" s="358" t="n"/>
-      <c r="E19" s="117" t="inlineStr">
+      <c r="E19" s="397" t="inlineStr">
         <is>
           <t>위례송례중 수학</t>
         </is>
       </c>
-      <c r="F19" s="115" t="n">
+      <c r="F19" s="398" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="137" t="inlineStr">
+      <c r="G19" s="404" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H19" s="118" t="n"/>
-      <c r="I19" s="115" t="n"/>
-      <c r="J19" s="206" t="inlineStr">
+      <c r="H19" s="400" t="n"/>
+      <c r="I19" s="398" t="n"/>
+      <c r="J19" s="401" t="inlineStr">
         <is>
           <t>[위례수학학원] 2020학년 송례중 2학년2학기 수학기말고사 분석</t>
         </is>
@@ -26400,22 +26459,22 @@
         <v>2</v>
       </c>
       <c r="D20" s="362" t="n"/>
-      <c r="E20" s="225" t="inlineStr">
+      <c r="E20" s="402" t="inlineStr">
         <is>
           <t>송례중 수학학원</t>
         </is>
       </c>
-      <c r="F20" s="115" t="n">
+      <c r="F20" s="398" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="115" t="inlineStr">
+      <c r="G20" s="398" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H20" s="115" t="n"/>
-      <c r="I20" s="115" t="n"/>
-      <c r="J20" s="206" t="inlineStr">
+      <c r="H20" s="398" t="n"/>
+      <c r="I20" s="398" t="n"/>
+      <c r="J20" s="401" t="inlineStr">
         <is>
           <t>[위례수학학원] 2020학년 송례중 2학년2학기 수학기말고사 분석</t>
         </is>
@@ -26436,26 +26495,26 @@
           <t>위례</t>
         </is>
       </c>
-      <c r="E21" s="245" t="inlineStr">
+      <c r="E21" s="405" t="inlineStr">
         <is>
           <t>위례수학</t>
         </is>
       </c>
-      <c r="F21" s="239" t="inlineStr">
+      <c r="F21" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G21" s="239" t="inlineStr">
-        <is>
-          <t>순위없음</t>
-        </is>
-      </c>
-      <c r="H21" s="239" t="n"/>
-      <c r="I21" s="239" t="n"/>
-      <c r="J21" s="242" t="inlineStr">
-        <is>
-          <t>게시물 없음</t>
+      <c r="G21" s="393" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H21" s="393" t="n"/>
+      <c r="I21" s="393" t="n"/>
+      <c r="J21" s="396" t="inlineStr">
+        <is>
+          <t>[위례수학경시] 성균관대 '제43회 전국 초중고 수학 학력경시대회' 대비 방법</t>
         </is>
       </c>
     </row>
@@ -26466,22 +26525,22 @@
         <v>1</v>
       </c>
       <c r="D22" s="358" t="n"/>
-      <c r="E22" s="246" t="inlineStr">
+      <c r="E22" s="409" t="inlineStr">
         <is>
           <t>위례수학학원</t>
         </is>
       </c>
-      <c r="F22" s="239" t="n">
+      <c r="F22" s="393" t="n">
         <v>27</v>
       </c>
-      <c r="G22" s="239" t="inlineStr">
+      <c r="G22" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H22" s="239" t="n"/>
-      <c r="I22" s="239" t="n"/>
-      <c r="J22" s="242" t="inlineStr">
+      <c r="H22" s="393" t="n"/>
+      <c r="I22" s="393" t="n"/>
+      <c r="J22" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26494,24 +26553,24 @@
         <v>2</v>
       </c>
       <c r="D23" s="358" t="n"/>
-      <c r="E23" s="246" t="inlineStr">
+      <c r="E23" s="409" t="inlineStr">
         <is>
           <t>위례고등수학</t>
         </is>
       </c>
-      <c r="F23" s="239" t="inlineStr">
+      <c r="F23" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G23" s="239" t="inlineStr">
+      <c r="G23" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H23" s="239" t="n"/>
-      <c r="I23" s="239" t="n"/>
-      <c r="J23" s="242" t="inlineStr">
+      <c r="H23" s="393" t="n"/>
+      <c r="I23" s="393" t="n"/>
+      <c r="J23" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26524,22 +26583,22 @@
         <v>2</v>
       </c>
       <c r="D24" s="358" t="n"/>
-      <c r="E24" s="246" t="inlineStr">
+      <c r="E24" s="409" t="inlineStr">
         <is>
           <t>위례고등수학학원</t>
         </is>
       </c>
-      <c r="F24" s="239" t="n">
+      <c r="F24" s="393" t="n">
         <v>25</v>
       </c>
-      <c r="G24" s="239" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H24" s="239" t="n"/>
-      <c r="I24" s="239" t="n"/>
-      <c r="J24" s="242" t="inlineStr">
+      <c r="G24" s="393" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H24" s="393" t="n"/>
+      <c r="I24" s="393" t="n"/>
+      <c r="J24" s="396" t="inlineStr">
         <is>
           <t>[위례수학학원] 2022학년도 서울지역 후기 특목자사고 경쟁률 분석</t>
         </is>
@@ -26552,22 +26611,22 @@
         <v>2</v>
       </c>
       <c r="D25" s="358" t="n"/>
-      <c r="E25" s="246" t="inlineStr">
+      <c r="E25" s="409" t="inlineStr">
         <is>
           <t>위례중등수학</t>
         </is>
       </c>
-      <c r="F25" s="239" t="n">
+      <c r="F25" s="393" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="239" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H25" s="239" t="n"/>
-      <c r="I25" s="239" t="n"/>
-      <c r="J25" s="242" t="inlineStr">
+      <c r="G25" s="393" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H25" s="393" t="n"/>
+      <c r="I25" s="393" t="n"/>
+      <c r="J25" s="396" t="inlineStr">
         <is>
           <t>[위례수학학원] 중등 수학 2학기 내신의 중요성2</t>
         </is>
@@ -26580,22 +26639,22 @@
         <v>2</v>
       </c>
       <c r="D26" s="358" t="n"/>
-      <c r="E26" s="246" t="inlineStr">
+      <c r="E26" s="409" t="inlineStr">
         <is>
           <t>위례중등수학학원</t>
         </is>
       </c>
-      <c r="F26" s="239" t="n">
+      <c r="F26" s="393" t="n">
         <v>13</v>
       </c>
-      <c r="G26" s="239" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H26" s="239" t="n"/>
-      <c r="I26" s="239" t="n"/>
-      <c r="J26" s="242" t="inlineStr">
+      <c r="G26" s="393" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H26" s="393" t="n"/>
+      <c r="I26" s="393" t="n"/>
+      <c r="J26" s="396" t="inlineStr">
         <is>
           <t>[위례수학학원] 중등 수학 2학기 내신의 중요성2</t>
         </is>
@@ -26608,22 +26667,22 @@
         <v>2</v>
       </c>
       <c r="D27" s="358" t="n"/>
-      <c r="E27" s="246" t="inlineStr">
+      <c r="E27" s="409" t="inlineStr">
         <is>
           <t>위례초등수학</t>
         </is>
       </c>
-      <c r="F27" s="239" t="n">
+      <c r="F27" s="393" t="n">
         <v>12</v>
       </c>
-      <c r="G27" s="239" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H27" s="239" t="n"/>
-      <c r="I27" s="239" t="n"/>
-      <c r="J27" s="242" t="inlineStr">
+      <c r="G27" s="393" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H27" s="393" t="n"/>
+      <c r="I27" s="393" t="n"/>
+      <c r="J27" s="396" t="inlineStr">
         <is>
           <t>[위례초등수학] 2021년 전기 전국 초·중·고 영어/수학 학력경시대회</t>
         </is>
@@ -26636,22 +26695,22 @@
         <v>2</v>
       </c>
       <c r="D28" s="358" t="n"/>
-      <c r="E28" s="246" t="inlineStr">
+      <c r="E28" s="409" t="inlineStr">
         <is>
           <t>위례초등수학학원</t>
         </is>
       </c>
-      <c r="F28" s="239" t="n">
+      <c r="F28" s="393" t="n">
         <v>30</v>
       </c>
-      <c r="G28" s="239" t="inlineStr">
+      <c r="G28" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H28" s="239" t="n"/>
-      <c r="I28" s="239" t="n"/>
-      <c r="J28" s="242" t="inlineStr">
+      <c r="H28" s="393" t="n"/>
+      <c r="I28" s="393" t="n"/>
+      <c r="J28" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26664,24 +26723,24 @@
         <v>2</v>
       </c>
       <c r="D29" s="358" t="n"/>
-      <c r="E29" s="238" t="inlineStr">
+      <c r="E29" s="402" t="inlineStr">
         <is>
           <t>위례경시</t>
         </is>
       </c>
-      <c r="F29" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="115" t="inlineStr">
+      <c r="F29" s="398" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="398" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H29" s="115" t="n"/>
-      <c r="I29" s="115" t="n"/>
-      <c r="J29" s="206" t="inlineStr">
-        <is>
-          <t>[위례수학학원] 영재고, 과학고 입시 변경 소식 - 경시대회 준비반의 부활?</t>
+      <c r="H29" s="398" t="n"/>
+      <c r="I29" s="398" t="n"/>
+      <c r="J29" s="401" t="inlineStr">
+        <is>
+          <t>[위례수학경시] 성균관대 '제43회 전국 초중고 수학 학력경시대회' 대비 방법</t>
         </is>
       </c>
     </row>
@@ -26692,24 +26751,24 @@
         <v>2</v>
       </c>
       <c r="D30" s="358" t="n"/>
-      <c r="E30" s="238" t="inlineStr">
+      <c r="E30" s="402" t="inlineStr">
         <is>
           <t>위례경시대회</t>
         </is>
       </c>
-      <c r="F30" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="115" t="inlineStr">
+      <c r="F30" s="398" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="398" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H30" s="115" t="n"/>
-      <c r="I30" s="115" t="n"/>
-      <c r="J30" s="206" t="inlineStr">
-        <is>
-          <t>[위례수학학원] 영재고, 과학고 입시 변경 소식 - 경시대회 준비반의 부활?</t>
+      <c r="H30" s="398" t="n"/>
+      <c r="I30" s="398" t="n"/>
+      <c r="J30" s="401" t="inlineStr">
+        <is>
+          <t>[위례수학경시] 성균관대 '제43회 전국 초중고 수학 학력경시대회' 대비 방법</t>
         </is>
       </c>
     </row>
@@ -26720,22 +26779,22 @@
         <v>2</v>
       </c>
       <c r="D31" s="362" t="n"/>
-      <c r="E31" s="238" t="inlineStr">
+      <c r="E31" s="402" t="inlineStr">
         <is>
           <t>위례영재교육</t>
         </is>
       </c>
-      <c r="F31" s="115" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" s="115" t="inlineStr">
+      <c r="F31" s="398" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="398" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H31" s="115" t="n"/>
-      <c r="I31" s="115" t="n"/>
-      <c r="J31" s="206" t="inlineStr">
+      <c r="H31" s="398" t="n"/>
+      <c r="I31" s="398" t="n"/>
+      <c r="J31" s="401" t="inlineStr">
         <is>
           <t>[위례수학학원] 2020년에 실시된 영재교육에 대한 통계분석</t>
         </is>
@@ -26752,24 +26811,24 @@
           <t>위례중앙</t>
         </is>
       </c>
-      <c r="E32" s="245" t="inlineStr">
+      <c r="E32" s="405" t="inlineStr">
         <is>
           <t>위례중앙타워 수학</t>
         </is>
       </c>
-      <c r="F32" s="239" t="inlineStr">
+      <c r="F32" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G32" s="239" t="inlineStr">
+      <c r="G32" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H32" s="239" t="n"/>
-      <c r="I32" s="239" t="n"/>
-      <c r="J32" s="242" t="inlineStr">
+      <c r="H32" s="393" t="n"/>
+      <c r="I32" s="393" t="n"/>
+      <c r="J32" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26782,24 +26841,24 @@
         <v>2</v>
       </c>
       <c r="D33" s="358" t="n"/>
-      <c r="E33" s="245" t="inlineStr">
+      <c r="E33" s="405" t="inlineStr">
         <is>
           <t>위례중앙타워 수학학원</t>
         </is>
       </c>
-      <c r="F33" s="239" t="inlineStr">
+      <c r="F33" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G33" s="239" t="inlineStr">
+      <c r="G33" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H33" s="239" t="n"/>
-      <c r="I33" s="239" t="n"/>
-      <c r="J33" s="242" t="inlineStr">
+      <c r="H33" s="393" t="n"/>
+      <c r="I33" s="393" t="n"/>
+      <c r="J33" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26812,22 +26871,22 @@
         <v>2</v>
       </c>
       <c r="D34" s="358" t="n"/>
-      <c r="E34" s="225" t="inlineStr">
+      <c r="E34" s="402" t="inlineStr">
         <is>
           <t>위례중앙타워 하늘교육</t>
         </is>
       </c>
-      <c r="F34" s="115" t="n">
+      <c r="F34" s="398" t="n">
         <v>4</v>
       </c>
-      <c r="G34" s="115" t="inlineStr">
+      <c r="G34" s="398" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="H34" s="115" t="n"/>
-      <c r="I34" s="115" t="n"/>
-      <c r="J34" s="206" t="inlineStr">
+      <c r="H34" s="398" t="n"/>
+      <c r="I34" s="398" t="n"/>
+      <c r="J34" s="401" t="inlineStr">
         <is>
           <t>위례 국어 (송현 국어 학원 ) - 예비고1, 예비중2 개강 (12월 4일)</t>
         </is>
@@ -26840,24 +26899,24 @@
         <v>2</v>
       </c>
       <c r="D35" s="362" t="n"/>
-      <c r="E35" s="246" t="inlineStr">
+      <c r="E35" s="409" t="inlineStr">
         <is>
           <t>위례중앙타워 학원</t>
         </is>
       </c>
-      <c r="F35" s="239" t="inlineStr">
+      <c r="F35" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G35" s="239" t="inlineStr">
+      <c r="G35" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H35" s="239" t="n"/>
-      <c r="I35" s="239" t="n"/>
-      <c r="J35" s="242" t="inlineStr">
+      <c r="H35" s="393" t="n"/>
+      <c r="I35" s="393" t="n"/>
+      <c r="J35" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26874,24 +26933,24 @@
           <t>위례동</t>
         </is>
       </c>
-      <c r="E36" s="246" t="inlineStr">
+      <c r="E36" s="409" t="inlineStr">
         <is>
           <t>위례동수학</t>
         </is>
       </c>
-      <c r="F36" s="239" t="inlineStr">
+      <c r="F36" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G36" s="239" t="inlineStr">
+      <c r="G36" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H36" s="239" t="n"/>
-      <c r="I36" s="239" t="n"/>
-      <c r="J36" s="242" t="inlineStr">
+      <c r="H36" s="393" t="n"/>
+      <c r="I36" s="393" t="n"/>
+      <c r="J36" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26904,24 +26963,24 @@
         <v>2</v>
       </c>
       <c r="D37" s="362" t="n"/>
-      <c r="E37" s="245" t="inlineStr">
+      <c r="E37" s="405" t="inlineStr">
         <is>
           <t>위례동수학학원</t>
         </is>
       </c>
-      <c r="F37" s="239" t="inlineStr">
+      <c r="F37" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G37" s="239" t="inlineStr">
+      <c r="G37" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H37" s="239" t="n"/>
-      <c r="I37" s="239" t="n"/>
-      <c r="J37" s="242" t="inlineStr">
+      <c r="H37" s="393" t="n"/>
+      <c r="I37" s="393" t="n"/>
+      <c r="J37" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26938,24 +26997,24 @@
           <t>성남</t>
         </is>
       </c>
-      <c r="E38" s="247" t="inlineStr">
+      <c r="E38" s="410" t="inlineStr">
         <is>
           <t>성남수학</t>
         </is>
       </c>
-      <c r="F38" s="239" t="inlineStr">
+      <c r="F38" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G38" s="239" t="inlineStr">
+      <c r="G38" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H38" s="239" t="n"/>
-      <c r="I38" s="239" t="n"/>
-      <c r="J38" s="242" t="inlineStr">
+      <c r="H38" s="393" t="n"/>
+      <c r="I38" s="393" t="n"/>
+      <c r="J38" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -26968,24 +27027,24 @@
         <v>3</v>
       </c>
       <c r="D39" s="358" t="n"/>
-      <c r="E39" s="247" t="inlineStr">
+      <c r="E39" s="410" t="inlineStr">
         <is>
           <t>성남수학학원</t>
         </is>
       </c>
-      <c r="F39" s="239" t="inlineStr">
+      <c r="F39" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G39" s="239" t="inlineStr">
+      <c r="G39" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H39" s="239" t="n"/>
-      <c r="I39" s="239" t="n"/>
-      <c r="J39" s="242" t="inlineStr">
+      <c r="H39" s="393" t="n"/>
+      <c r="I39" s="393" t="n"/>
+      <c r="J39" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -27002,24 +27061,24 @@
           <t>수정구</t>
         </is>
       </c>
-      <c r="E40" s="245" t="inlineStr">
+      <c r="E40" s="405" t="inlineStr">
         <is>
           <t>수정구수학</t>
         </is>
       </c>
-      <c r="F40" s="239" t="inlineStr">
+      <c r="F40" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G40" s="239" t="inlineStr">
+      <c r="G40" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H40" s="239" t="n"/>
-      <c r="I40" s="239" t="n"/>
-      <c r="J40" s="242" t="inlineStr">
+      <c r="H40" s="393" t="n"/>
+      <c r="I40" s="393" t="n"/>
+      <c r="J40" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -27032,24 +27091,24 @@
         <v>3</v>
       </c>
       <c r="D41" s="362" t="n"/>
-      <c r="E41" s="245" t="inlineStr">
+      <c r="E41" s="405" t="inlineStr">
         <is>
           <t>수정구수학학원</t>
         </is>
       </c>
-      <c r="F41" s="239" t="inlineStr">
+      <c r="F41" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G41" s="239" t="inlineStr">
+      <c r="G41" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H41" s="239" t="n"/>
-      <c r="I41" s="239" t="n"/>
-      <c r="J41" s="242" t="inlineStr">
+      <c r="H41" s="393" t="n"/>
+      <c r="I41" s="393" t="n"/>
+      <c r="J41" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -27066,24 +27125,24 @@
           <t>창곡동</t>
         </is>
       </c>
-      <c r="E42" s="247" t="inlineStr">
+      <c r="E42" s="410" t="inlineStr">
         <is>
           <t>창곡동수학</t>
         </is>
       </c>
-      <c r="F42" s="239" t="inlineStr">
+      <c r="F42" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G42" s="239" t="inlineStr">
+      <c r="G42" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H42" s="239" t="n"/>
-      <c r="I42" s="239" t="n"/>
-      <c r="J42" s="242" t="inlineStr">
+      <c r="H42" s="393" t="n"/>
+      <c r="I42" s="393" t="n"/>
+      <c r="J42" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -27096,22 +27155,22 @@
         <v>3</v>
       </c>
       <c r="D43" s="362" t="n"/>
-      <c r="E43" s="245" t="inlineStr">
+      <c r="E43" s="405" t="inlineStr">
         <is>
           <t>창곡동수학학원</t>
         </is>
       </c>
-      <c r="F43" s="239" t="n">
+      <c r="F43" s="393" t="n">
         <v>19</v>
       </c>
-      <c r="G43" s="239" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H43" s="239" t="n"/>
-      <c r="I43" s="239" t="n"/>
-      <c r="J43" s="242" t="inlineStr">
+      <c r="G43" s="393" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H43" s="393" t="n"/>
+      <c r="I43" s="393" t="n"/>
+      <c r="J43" s="396" t="inlineStr">
         <is>
           <t>[창곡동 수학학원] 올해 영재학교 입학전형안 확정!!</t>
         </is>
@@ -27128,24 +27187,24 @@
           <t>장지동</t>
         </is>
       </c>
-      <c r="E44" s="247" t="inlineStr">
+      <c r="E44" s="410" t="inlineStr">
         <is>
           <t>장지동수학</t>
         </is>
       </c>
-      <c r="F44" s="239" t="inlineStr">
+      <c r="F44" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G44" s="239" t="inlineStr">
+      <c r="G44" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H44" s="239" t="n"/>
-      <c r="I44" s="239" t="n"/>
-      <c r="J44" s="242" t="inlineStr">
+      <c r="H44" s="393" t="n"/>
+      <c r="I44" s="393" t="n"/>
+      <c r="J44" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
@@ -27158,24 +27217,24 @@
         <v>3</v>
       </c>
       <c r="D45" s="362" t="n"/>
-      <c r="E45" s="247" t="inlineStr">
+      <c r="E45" s="410" t="inlineStr">
         <is>
           <t>장지동수학학원</t>
         </is>
       </c>
-      <c r="F45" s="239" t="inlineStr">
+      <c r="F45" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="G45" s="239" t="inlineStr">
+      <c r="G45" s="393" t="inlineStr">
         <is>
           <t>순위없음</t>
         </is>
       </c>
-      <c r="H45" s="239" t="n"/>
-      <c r="I45" s="239" t="n"/>
-      <c r="J45" s="242" t="inlineStr">
+      <c r="H45" s="393" t="n"/>
+      <c r="I45" s="393" t="n"/>
+      <c r="J45" s="396" t="inlineStr">
         <is>
           <t>게시물 없음</t>
         </is>
